--- a/Analyzed/try8/data_2014.xlsx
+++ b/Analyzed/try8/data_2014.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>53.18</v>
       </c>
       <c r="J2">
-        <v>543.8000000000001</v>
+        <v>895.88975</v>
       </c>
       <c r="K2">
         <v>882.491</v>
       </c>
       <c r="L2">
-        <v>577.92</v>
+        <v>1019.32635</v>
       </c>
       <c r="M2">
         <v>60.17504652793269</v>
@@ -558,48 +583,63 @@
         <v>-118.95</v>
       </c>
       <c r="P2">
-        <v>391.5302949466425</v>
+        <v>510.5927573789443</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>8</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>6</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>0</v>
       </c>
     </row>
@@ -634,13 +674,13 @@
         <v>53.38</v>
       </c>
       <c r="J3">
-        <v>569.4</v>
+        <v>991.4724900000001</v>
       </c>
       <c r="K3">
         <v>1705.345</v>
       </c>
       <c r="L3">
-        <v>526.89</v>
+        <v>970.186</v>
       </c>
       <c r="M3">
         <v>56.40812586039708</v>
@@ -652,49 +692,64 @@
         <v>-160.81</v>
       </c>
       <c r="P3">
-        <v>329.3696038913105</v>
+        <v>430.3725981477771</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>7</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>5</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>4</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>4</v>
       </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
       <c r="AB3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>4</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>45.62</v>
       </c>
       <c r="J4">
-        <v>502.8</v>
+        <v>747.5575600000001</v>
       </c>
       <c r="K4">
         <v>1244.134</v>
       </c>
       <c r="L4">
-        <v>538.02</v>
+        <v>855.58725</v>
       </c>
       <c r="M4">
         <v>56.49437195848255</v>
@@ -746,49 +801,64 @@
         <v>-112.89</v>
       </c>
       <c r="P4">
-        <v>452.5711103557909</v>
+        <v>592.4014160665976</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>5</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>39.48</v>
       </c>
       <c r="J5">
-        <v>454.8</v>
+        <v>520.65682</v>
       </c>
       <c r="K5">
         <v>1915.716</v>
       </c>
       <c r="L5">
-        <v>473.76</v>
+        <v>600.1177</v>
       </c>
       <c r="M5">
         <v>65.90383795339258</v>
@@ -840,48 +910,63 @@
         <v>-156.14</v>
       </c>
       <c r="P5">
-        <v>396.3349215481046</v>
+        <v>516.901947658265</v>
       </c>
       <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>5</v>
       </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
         <v>0</v>
       </c>
     </row>
@@ -916,13 +1001,13 @@
         <v>36.93</v>
       </c>
       <c r="J6">
-        <v>490</v>
+        <v>613.5547800000001</v>
       </c>
       <c r="K6">
         <v>1449.323</v>
       </c>
       <c r="L6">
-        <v>531.51</v>
+        <v>778.25825</v>
       </c>
       <c r="M6">
         <v>67.22479626283834</v>
@@ -934,48 +1019,63 @@
         <v>-188.49</v>
       </c>
       <c r="P6">
-        <v>274.8063717242403</v>
+        <v>357.7072135147414</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
         <v>2</v>
       </c>
     </row>
@@ -1010,13 +1110,13 @@
         <v>36.68</v>
       </c>
       <c r="J7">
-        <v>483.2</v>
+        <v>626.3487600000001</v>
       </c>
       <c r="K7">
         <v>1416.517</v>
       </c>
       <c r="L7">
-        <v>501.69</v>
+        <v>741.3665</v>
       </c>
       <c r="M7">
         <v>62.99067053594349</v>
@@ -1028,49 +1128,64 @@
         <v>-199.41</v>
       </c>
       <c r="P7">
-        <v>358.4166122628922</v>
+        <v>469.1164054814437</v>
       </c>
       <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>43.27</v>
       </c>
       <c r="J8">
-        <v>501</v>
+        <v>673.9242300000001</v>
       </c>
       <c r="K8">
         <v>1447.531</v>
       </c>
       <c r="L8">
-        <v>467.25</v>
+        <v>708.67965</v>
       </c>
       <c r="M8">
         <v>73.84372727957</v>
@@ -1122,49 +1237,64 @@
         <v>-149.24</v>
       </c>
       <c r="P8">
-        <v>375.5031097796439</v>
+        <v>490.4121718236357</v>
       </c>
       <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>5</v>
       </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>3</v>
-      </c>
-      <c r="Y8">
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
         <v>4</v>
       </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>4</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>4</v>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>31.43</v>
       </c>
       <c r="J9">
-        <v>478.8</v>
+        <v>569.6458</v>
       </c>
       <c r="K9">
         <v>1798.977</v>
       </c>
       <c r="L9">
-        <v>502.74</v>
+        <v>684.38405</v>
       </c>
       <c r="M9">
         <v>61.0856291596276</v>
@@ -1216,40 +1346,40 @@
         <v>-132.14</v>
       </c>
       <c r="P9">
-        <v>228.4462254077919</v>
+        <v>295.994380969984</v>
       </c>
       <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <v>6</v>
       </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>5</v>
       </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1258,6 +1388,21 @@
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0</v>
       </c>
     </row>
@@ -1292,13 +1437,13 @@
         <v>21.8</v>
       </c>
       <c r="J10">
-        <v>457.8</v>
+        <v>521.26769</v>
       </c>
       <c r="K10">
         <v>1159.914</v>
       </c>
       <c r="L10">
-        <v>447.51</v>
+        <v>578.00995</v>
       </c>
       <c r="M10">
         <v>74.51539589927314</v>
@@ -1310,32 +1455,32 @@
         <v>-230.55</v>
       </c>
       <c r="P10">
-        <v>242.6267148050245</v>
+        <v>314.846802898755</v>
       </c>
       <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
       <c r="S10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>8</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
@@ -1343,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1352,6 +1497,21 @@
         <v>0</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
         <v>0</v>
       </c>
     </row>
